--- a/p平台币.xlsx
+++ b/p平台币.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="9084" tabRatio="541" activeTab="2"/>
+    <workbookView windowWidth="22343" windowHeight="9107" tabRatio="541" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OTC_InjectCycle" sheetId="1" r:id="rId1"/>
     <sheet name="OTC_TradeCost" sheetId="3" r:id="rId2"/>
     <sheet name="直推收益_DirectRate" sheetId="4" r:id="rId3"/>
     <sheet name="团队收益_TeamRate" sheetId="5" r:id="rId4"/>
+    <sheet name="团队星级_TeamStar" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -112,8 +113,40 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+百分比</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>周期ID</t>
   </si>
@@ -207,16 +240,22 @@
   <si>
     <t>otherCount</t>
   </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -228,15 +267,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,15 +341,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,21 +373,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,17 +381,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,53 +403,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +442,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,163 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +633,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,83 +725,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,10 +741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,133 +753,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,7 +1281,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:C11"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -34269,8 +34308,8 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -34401,7 +34440,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -34585,4 +34624,234 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/p平台币.xlsx
+++ b/p平台币.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22343" windowHeight="9107" tabRatio="541" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="11291" tabRatio="541" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OTC_InjectCycle" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+百分比</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -146,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>周期ID</t>
   </si>
@@ -223,6 +245,24 @@
     <t>直推收益,每次领币百分比提成</t>
   </si>
   <si>
+    <t>直推0人收益</t>
+  </si>
+  <si>
+    <t>直推1人收益</t>
+  </si>
+  <si>
+    <t>直推2人收益</t>
+  </si>
+  <si>
+    <t>直推3人收益</t>
+  </si>
+  <si>
+    <t>直推4人收益</t>
+  </si>
+  <si>
+    <t>直推5人收益</t>
+  </si>
+  <si>
     <t>团队人数</t>
   </si>
   <si>
@@ -232,6 +272,9 @@
     <t>团队收益,非直每次领币百分比提成</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>allCount</t>
   </si>
   <si>
@@ -239,6 +282,9 @@
   </si>
   <si>
     <t>otherCount</t>
+  </si>
+  <si>
+    <t>dec</t>
   </si>
   <si>
     <t>星级</t>
@@ -252,10 +298,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -267,66 +313,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,7 +336,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,14 +398,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -379,17 +420,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,14 +436,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,7 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +512,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +572,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,91 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,43 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,78 +679,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -725,11 +699,83 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,133 +799,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -34198,7 +34244,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -34306,13 +34352,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="7" customWidth="1"/>
@@ -34361,9 +34407,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -34371,10 +34417,13 @@
       <c r="C5" s="6">
         <v>0</v>
       </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -34382,10 +34431,13 @@
       <c r="C6" s="6">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -34393,10 +34445,13 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
@@ -34404,10 +34459,13 @@
       <c r="C8" s="5">
         <v>3</v>
       </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5">
         <v>4</v>
@@ -34415,16 +34473,22 @@
       <c r="C9" s="6">
         <v>4</v>
       </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -34437,36 +34501,39 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -34482,25 +34549,31 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -34516,10 +34589,13 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -34536,7 +34612,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5">
         <v>10</v>
@@ -34553,7 +34629,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5">
         <v>100</v>
@@ -34570,7 +34646,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5">
         <v>1000</v>
@@ -34587,7 +34663,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5">
         <v>10000</v>
@@ -34604,7 +34680,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5">
         <v>100000</v>
@@ -34631,8 +34707,8 @@
   <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -34642,13 +34718,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -34670,7 +34746,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/p平台币.xlsx
+++ b/p平台币.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="11291" tabRatio="541" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="8507" tabRatio="541" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OTC_InjectCycle" sheetId="1" r:id="rId1"/>
     <sheet name="OTC_TradeCost" sheetId="3" r:id="rId2"/>
     <sheet name="直推收益_DirectRate" sheetId="4" r:id="rId3"/>
     <sheet name="团队收益_TeamRate" sheetId="5" r:id="rId4"/>
-    <sheet name="团队星级_TeamStar" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -135,40 +134,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-百分比</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>周期ID</t>
   </si>
@@ -286,22 +253,16 @@
   <si>
     <t>dec</t>
   </si>
-  <si>
-    <t>星级</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -313,7 +274,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,34 +347,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,14 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +373,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,62 +410,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,7 +449,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,37 +593,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,133 +623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,80 +640,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -779,6 +666,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -787,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -34354,7 +34315,7 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
@@ -34503,8 +34464,8 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -34700,234 +34661,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
-  <cols>
-    <col min="3" max="3" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/p平台币.xlsx
+++ b/p平台币.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8507" tabRatio="541" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9947" tabRatio="541"/>
   </bookViews>
   <sheets>
     <sheet name="OTC_InjectCycle" sheetId="1" r:id="rId1"/>
@@ -176,22 +176,22 @@
     <t>C</t>
   </si>
   <si>
-    <t>一周</t>
+    <t>CN_429</t>
   </si>
   <si>
-    <t>一个月</t>
+    <t>CN_430</t>
   </si>
   <si>
-    <t>两个月</t>
+    <t>CN_431</t>
   </si>
   <si>
-    <t>三个月</t>
+    <t>CN_432</t>
   </si>
   <si>
-    <t>半年</t>
+    <t>CN_433</t>
   </si>
   <si>
-    <t>一年</t>
+    <t>CN_434</t>
   </si>
   <si>
     <t>编号</t>
@@ -261,8 +261,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -273,51 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -333,15 +288,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,16 +309,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +335,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +380,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -449,115 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +473,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,49 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,6 +644,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -654,56 +669,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,8 +700,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,133 +760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,12 +1283,12 @@
   <sheetPr/>
   <dimension ref="A1:XEV13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1362,7 +1362,7 @@
       <c r="C5" s="13">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="12"/>
@@ -17748,7 +17748,7 @@
       <c r="C6" s="12">
         <v>30</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="12"/>
@@ -34134,7 +34134,7 @@
       <c r="C7" s="12">
         <v>60</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -34148,7 +34148,7 @@
       <c r="C8" s="12">
         <v>90</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -34162,7 +34162,7 @@
       <c r="C9" s="12">
         <v>180</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -34176,7 +34176,7 @@
       <c r="C10" s="12">
         <v>360</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -34464,7 +34464,7 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
